--- a/Node.js And Express.js Cheatsheet.xlsx
+++ b/Node.js And Express.js Cheatsheet.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D45D4-EFEB-497E-BD03-BF5D3925B7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52B4BB-C1EC-4318-BAA0-226B2C953696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17985" yWindow="-6045" windowWidth="18090" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{A3F2333C-E7A1-4421-ABFA-4F873923B5EB}"/>
+    <workbookView xWindow="-28020" yWindow="15" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{A3F2333C-E7A1-4421-ABFA-4F873923B5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Getting started with Node.js" sheetId="2" r:id="rId1"/>
     <sheet name="Node.js Basics" sheetId="1" r:id="rId2"/>
     <sheet name="Node.js Advanced" sheetId="6" r:id="rId3"/>
-    <sheet name="Useful NPM Packages" sheetId="5" r:id="rId4"/>
-    <sheet name="Getting started with Express.js" sheetId="3" r:id="rId5"/>
-    <sheet name="Express.js Basics" sheetId="4" r:id="rId6"/>
+    <sheet name="Getting started with Express.js" sheetId="3" r:id="rId4"/>
+    <sheet name="Express.js Basics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Concept</t>
   </si>
@@ -1533,9 +1532,6 @@
       </rPr>
       <t>encoding: "utf8"</t>
     </r>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>Setup simple server</t>
@@ -3821,61 +3817,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -4055,58 +3997,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE6FA91C-2F40-4A2A-B9A1-C92D3201D013}" name="Table13" displayName="Table13" ref="A1:C11" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:C11" xr:uid="{DE6FA91C-2F40-4A2A-B9A1-C92D3201D013}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE6FA91C-2F40-4A2A-B9A1-C92D3201D013}" name="Table13" displayName="Table13" ref="A1:C10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:C10" xr:uid="{DE6FA91C-2F40-4A2A-B9A1-C92D3201D013}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EB4D3E5B-A076-4D7C-B325-87D8E0F3F5EE}" name="Concept" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{E259C5D0-5831-4996-A221-8CEE41EA06FC}" name="Explained" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{7EDC45F6-01CF-4C39-8905-10C352763164}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{EB4D3E5B-A076-4D7C-B325-87D8E0F3F5EE}" name="Concept" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{E259C5D0-5831-4996-A221-8CEE41EA06FC}" name="Explained" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7EDC45F6-01CF-4C39-8905-10C352763164}" name="Notes" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8770DC1-120F-4F44-AD7D-6EDB31766D30}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8770DC1-120F-4F44-AD7D-6EDB31766D30}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D16" xr:uid="{E8770DC1-120F-4F44-AD7D-6EDB31766D30}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{46CCC56C-87DB-42F2-8AC7-DCA1C0E52EB1}" name="Concept" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{FE821FD4-5C90-4F50-8BDA-EF23898AD277}" name="Example code" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A714F1F1-9F9D-4C84-B82F-48E6A993D8ED}" name="Explained" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{758DE324-D0CC-4763-BB20-08026AA19A4B}" name="Notes" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{46CCC56C-87DB-42F2-8AC7-DCA1C0E52EB1}" name="Concept" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{FE821FD4-5C90-4F50-8BDA-EF23898AD277}" name="Example code" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A714F1F1-9F9D-4C84-B82F-48E6A993D8ED}" name="Explained" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{758DE324-D0CC-4763-BB20-08026AA19A4B}" name="Notes" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A3AC79D-19F3-470E-AF87-3B7B2C129C16}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A3AC79D-19F3-470E-AF87-3B7B2C129C16}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:D2" xr:uid="{1A3AC79D-19F3-470E-AF87-3B7B2C129C16}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A6F72D25-9AD8-40CE-BA75-5E6220D09BA4}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6C5030EE-6A3D-4396-A376-4B847973CD35}" name="Example code" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{37F83B84-5311-435C-933F-A9EF1113E1BA}" name="Explained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{ABF17690-CF81-4E65-9589-AA9F2ED5D294}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A6F72D25-9AD8-40CE-BA75-5E6220D09BA4}" name="Concept" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6C5030EE-6A3D-4396-A376-4B847973CD35}" name="Example code" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{37F83B84-5311-435C-933F-A9EF1113E1BA}" name="Explained" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{ABF17690-CF81-4E65-9589-AA9F2ED5D294}" name="Notes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC525F17-193F-44C5-ACCC-B7A6AD5E28E8}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="A1:D4" xr:uid="{DC525F17-193F-44C5-ACCC-B7A6AD5E28E8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F189EB7D-CE86-4646-A22A-6EC74BE2E265}" name="Concept" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2A54AAD5-9130-4B25-A362-FAD754329CBD}" name="Example code" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{19FF652A-1FC9-485A-BD85-F0AD34828DA6}" name="Explained" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A2406967-7413-4337-81A9-C7F261131FAD}" name="Notes" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47CEF4AA-B3AC-4AD1-8AFD-B985ACA5399F}" name="Table4" displayName="Table4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47CEF4AA-B3AC-4AD1-8AFD-B985ACA5399F}" name="Table4" displayName="Table4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C2" xr:uid="{47CEF4AA-B3AC-4AD1-8AFD-B985ACA5399F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{408101B5-D71E-41CE-B5A3-524FD195A170}" name="Concept"/>
@@ -4117,8 +4046,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EAE149D0-F811-4360-B46F-752F3421CB2D}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EAE149D0-F811-4360-B46F-752F3421CB2D}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D2" xr:uid="{EAE149D0-F811-4360-B46F-752F3421CB2D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC5A5F8D-AA95-41DE-839D-3A14BE8823DE}" name="Concept"/>
@@ -4449,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BE4BD3-7C62-47C8-9539-4038B6FB2D9D}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4488,7 +4417,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
@@ -4501,62 +4430,62 @@
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="180">
       <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90">
       <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="270">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4571,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B48ED-B2F0-404A-BDF3-9C28F633CA23}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4665,7 +4594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="135">
+    <row r="7" spans="1:4" ht="120">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -4728,60 +4657,60 @@
     </row>
     <row r="12" spans="1:4" ht="225">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="180">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="255">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="270">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4726,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4825,16 +4754,16 @@
     </row>
     <row r="2" spans="1:4" ht="300">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4846,53 +4775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12196A-18C8-4420-9C22-DA18A2503148}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49989BB0-6ACB-4179-B2DE-4364B0D2DB30}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4913,11 +4800,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4926,12 +4808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC32FC7-B1EF-4E1C-B77D-5BB1D1206C09}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4956,11 +4838,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
